--- a/public/templates/zones.xlsx
+++ b/public/templates/zones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aacalderon\Temp\Datos Kapatax\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731C7C35-0FC4-42B9-A40E-7729306B8F64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188A3DE6-A244-46BF-94B5-F90243FE7207}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23565" yWindow="-1440" windowWidth="20460" windowHeight="10890" xr2:uid="{0CFA45D6-CC81-4B94-954F-6ACA2177D1FE}"/>
+    <workbookView xWindow="20370" yWindow="-4635" windowWidth="29040" windowHeight="15840" xr2:uid="{0CFA45D6-CC81-4B94-954F-6ACA2177D1FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
